--- a/biology/Zoologie/Chien_(film)/Chien_(film).xlsx
+++ b/biology/Zoologie/Chien_(film)/Chien_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chien est une comédie dramatique franco-belge coécrite et réalisée par Samuel Benchetrit et sortie en 2017. Il s’agit de l'adaptation du roman du même nom du réalisateur, publié en 2015.
 Le film est sélectionné en compétition officielle et projeté en avant-première mondiale en août 2017 au festival international du film de Locarno.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Blanchot perd sa femme, son travail et son logement. Devenu rapidement étranger au monde qui l’entoure, il est recueilli par Max, patron d’une animalerie. Ce dernier, sadique et humiliant, dresse Jacques qui devient littéralement son chien...
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Chien 
 Réalisation : Samuel Benchetrit
@@ -552,7 +568,7 @@
 Costumes : Mimi Lempicka
 Photographie : Guillaume Deffontaines
 Montage : Thomas Fernandez
-Musique : Richard Reed Parry[1]
+Musique : Richard Reed Parry
 Production : Marie Savare
 Société de production : Single Man Productions ; UMedia Productions (coproduction)
 Société de distribution : Paradis Films
@@ -592,7 +608,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vincent Macaigne : Jacques Blanchot
 Bouli Lanners : Max
@@ -629,10 +647,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le rôle de Max, finalement attribué à Bouli Lanners, était initialement prévu pour Jean-Claude Van Damme, comme l'explique Samuel Benchetrit[2] :
-« Quand j’ai écrit le livre, j’avais l’image de Chuck Norris en tête : cette figure angoissante d’un homme sûr de son fait et qui n’en démordra jamais. En l’occurrence, ce dresseur déçu par les hommes - et sans doute encore plus par les femmes - ne jure que par les animaux et l’autorité violente qu’il exerce sur eux. Il parle des bêtes comme il pense aux hommes. Physiquement, Jean-Claude me paraissait parfaitement correspondre à ce que j’avais en tête. Mais j’ai assez vite compris qu’on n’avait pas la même vision des choses. Je ne sais pas s’il avait vraiment compris le film que je voulais faire, et les moyens financiers dont je disposais !! On s’est donc séparé à l’amiable[2]. »
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le rôle de Max, finalement attribué à Bouli Lanners, était initialement prévu pour Jean-Claude Van Damme, comme l'explique Samuel Benchetrit :
+« Quand j’ai écrit le livre, j’avais l’image de Chuck Norris en tête : cette figure angoissante d’un homme sûr de son fait et qui n’en démordra jamais. En l’occurrence, ce dresseur déçu par les hommes - et sans doute encore plus par les femmes - ne jure que par les animaux et l’autorité violente qu’il exerce sur eux. Il parle des bêtes comme il pense aux hommes. Physiquement, Jean-Claude me paraissait parfaitement correspondre à ce que j’avais en tête. Mais j’ai assez vite compris qu’on n’avait pas la même vision des choses. Je ne sais pas s’il avait vraiment compris le film que je voulais faire, et les moyens financiers dont je disposais !! On s’est donc séparé à l’amiable. »
 — Samuel Benchetrit</t>
         </is>
       </c>
@@ -662,6 +682,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -687,7 +709,9 @@
           <t>Sélections</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Festival international du film de Locarno 2017 : sélection « Piazza Grande »
 Festival international du film francophone de Namur 2017 : sélection « Compétition officielle »
